--- a/biology/Zoologie/Digenea/Digenea.xlsx
+++ b/biology/Zoologie/Digenea/Digenea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Digènes, ou Digenea (du grec dis - double et de genos - race), sont une sous-classe de l'embranchement des Plathelminthes qui regroupe les vers plats parasites dotés d'un tégument syncytial et, le plus souvent, de deux ventouses, une ventrale et une buccale.
 On trouve fréquemment les sujets adultes dans l'appareil digestif de toutes les classes de vertébrés, mais tous les organes peuvent être infectés. Considérés naguère comme apparentés à la sous-classe des monogènes (Monogenea), les zoologues ont reconnu depuis leur parenté avec les Aspidogastrea, les Monogenea étant à rapprocher des cestodes (dont le ver solitaire est un représentant bien connu).
-Plus de 11 800 espèces sont reconnues[1].
+Plus de 11 800 espèces sont reconnues.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la classification de Hallan, près de 180 familles se répartissent en deux ordres[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification de Hallan, près de 180 familles se répartissent en deux ordres :
 ordre des Diplostomida
 sous-ordre des Diplostomata
 super-famille des Brachylaimoidea
